--- a/Test_File/2024.xlsx
+++ b/Test_File/2024.xlsx
@@ -239,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -383,6 +383,18 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thick"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -430,7 +442,7 @@
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -577,6 +589,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="168" fontId="11" fillId="23" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="16">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="10" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1986,15 +2025,27 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8" s="48" t="n"/>
-      <c r="C8" s="49" t="n"/>
+      <c r="B8" s="48">
+        <f>SUM(B11:B11)</f>
+        <v/>
+      </c>
+      <c r="C8" s="49">
+        <f>SUM(C11:C11)</f>
+        <v/>
+      </c>
       <c r="E8" s="23" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F8" s="50" t="n"/>
-      <c r="G8" s="51" t="n"/>
+      <c r="F8" s="50">
+        <f>SUM(F11:F11)</f>
+        <v/>
+      </c>
+      <c r="G8" s="51">
+        <f>SUM(G11:G11)</f>
+        <v/>
+      </c>
       <c r="K8" s="4" t="n"/>
       <c r="L8" s="5" t="n"/>
       <c r="M8" s="5" t="n"/>
@@ -10919,7 +10970,73 @@
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="24">
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
     <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>=Tools!$B:$B</formula1>
     </dataValidation>
@@ -11177,7 +11294,7 @@
       <c r="CV2" s="5" t="n"/>
     </row>
     <row r="3" ht="30" customHeight="1">
-      <c r="D3" s="9" t="inlineStr">
+      <c r="D3" s="54" t="inlineStr">
         <is>
           <t>&gt;&lt;</t>
         </is>
@@ -11409,7 +11526,7 @@
         <v/>
       </c>
       <c r="C5" s="45" t="n">
-        <v>828.99</v>
+        <v>424.26</v>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
@@ -11717,15 +11834,27 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8" s="48" t="n"/>
-      <c r="C8" s="49" t="n"/>
+      <c r="B8" s="48">
+        <f>SUM(B11:B11)</f>
+        <v/>
+      </c>
+      <c r="C8" s="49">
+        <f>SUM(C11:C11)</f>
+        <v/>
+      </c>
       <c r="E8" s="23" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="F8" s="50" t="n"/>
-      <c r="G8" s="51" t="n"/>
+      <c r="F8" s="50">
+        <f>SUM(F11:F11)</f>
+        <v/>
+      </c>
+      <c r="G8" s="51">
+        <f>SUM(G11:G11)</f>
+        <v/>
+      </c>
       <c r="K8" s="4" t="n"/>
       <c r="L8" s="5" t="n"/>
       <c r="M8" s="5" t="n"/>
@@ -13672,6 +13801,36 @@
       <c r="D27" s="37" t="n">
         <v>1388.58</v>
       </c>
+      <c r="F27" s="55" t="inlineStr">
+        <is>
+          <t>Total transaction</t>
+        </is>
+      </c>
+      <c r="G27" s="55" t="inlineStr">
+        <is>
+          <t>Dépense totale</t>
+        </is>
+      </c>
+      <c r="H27" s="55" t="inlineStr">
+        <is>
+          <t>Revenue totale</t>
+        </is>
+      </c>
+      <c r="I27" s="56" t="inlineStr">
+        <is>
+          <t>Total réelle</t>
+        </is>
+      </c>
+      <c r="J27" s="57" t="inlineStr">
+        <is>
+          <t>Dépense réelle</t>
+        </is>
+      </c>
+      <c r="K27" s="58" t="inlineStr">
+        <is>
+          <t>Revenue réel</t>
+        </is>
+      </c>
       <c r="L27" s="5" t="n"/>
       <c r="M27" s="5" t="n"/>
       <c r="N27" s="5" t="n"/>
@@ -13772,6 +13931,24 @@
       </c>
       <c r="D28" s="37" t="n">
         <v>-4.5</v>
+      </c>
+      <c r="F28" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="62" t="n">
+        <v>0</v>
       </c>
       <c r="L28" s="5" t="n"/>
       <c r="M28" s="5" t="n"/>
@@ -20601,13 +20778,19 @@
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>=Tools!$B:$B</formula1>
     </dataValidation>
     <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>=Tools!$A:$A</formula1>
     </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test_File/2024.xlsx
+++ b/Test_File/2024.xlsx
@@ -10970,7 +10970,7 @@
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <dataValidations count="24">
+  <dataValidations count="42">
     <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>=Tools!$B:$B</formula1>
     </dataValidation>
@@ -10981,6 +10981,60 @@
       <formula1>=Tools!$B:$B</formula1>
     </dataValidation>
     <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48 A49 A50 A51 A52 A53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>=Tools!$A:$A</formula1>
     </dataValidation>
     <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48 B49 B50 B51 B52 B53" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
@@ -20778,7 +20832,37 @@
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="14">
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$B:$B</formula1>
+    </dataValidation>
+    <dataValidation sqref="A27 A28 A29 A30 A31 A32 A33 A34 A35 A36 A37 A38 A39 A40 A41 A42 A43 A44 A45 A46 A47 A48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>=Tools!$A:$A</formula1>
+    </dataValidation>
     <dataValidation sqref="B27 B28 B29 B30 B31 B32 B33 B34 B35 B36 B37 B38 B39 B40 B41 B42 B43 B44 B45 B46 B47 B48" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>=Tools!$B:$B</formula1>
     </dataValidation>
